--- a/EffortEstimation/FinalReleaseDocuments/Testing/TestReport.xlsx
+++ b/EffortEstimation/FinalReleaseDocuments/Testing/TestReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\FinalReleaseDocuments\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF67EED7-8DF6-49DF-92B9-51B3487580E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344F1F68-9D4C-43C4-A64F-7BEC4F032481}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10935" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,22 +391,22 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,22 +677,22 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,8 +2024,8 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D4:D12" si="1">E5-C5-B5</f>
+        <f t="shared" ref="D5:D12" si="1">E5-C5-B5</f>
         <v>11</v>
       </c>
       <c r="E5" s="6">
@@ -2143,14 +2143,14 @@
         <v>42139</v>
       </c>
       <c r="B7" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f>E7-C7-B7</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="6">
         <f>E6+0</f>
@@ -2163,14 +2163,14 @@
         <v>42146</v>
       </c>
       <c r="B8" s="6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6">
         <f>E7+1</f>
@@ -2183,14 +2183,14 @@
         <v>42153</v>
       </c>
       <c r="B9" s="6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6">
         <f>E8+0</f>
@@ -2203,14 +2203,14 @@
         <v>42160</v>
       </c>
       <c r="B10" s="6">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6">
         <f>E9+2</f>
@@ -2223,14 +2223,14 @@
         <v>42167</v>
       </c>
       <c r="B11" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6">
         <f>E10+11</f>
@@ -2243,14 +2243,14 @@
         <v>42174</v>
       </c>
       <c r="B12" s="6">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6">
         <f>E11+1</f>
